--- a/src/list_5x5_with_Numbers.xlsx
+++ b/src/list_5x5_with_Numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronny.elflein/Code/priv/Soundboard/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronny.elflein/AOE Dropbox/Ronny Elflein/Mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{47BF41DC-8A51-064C-8E34-4AE3605B8DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D92F319-5413-8D46-868E-D7E9F3EFDFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="26240" windowHeight="14960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_5x5_2 (2)" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>werner-dat-geit</t>
   </si>
@@ -175,12 +175,24 @@
   </si>
   <si>
     <t>werner_flasche</t>
+  </si>
+  <si>
+    <t>cantina</t>
+  </si>
+  <si>
+    <t>Hallo Freunde</t>
+  </si>
+  <si>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>Bandit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -590,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -720,6 +732,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -765,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -788,6 +811,7 @@
     <xf numFmtId="0" fontId="19" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -852,9 +876,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -892,7 +916,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -998,7 +1022,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1140,14 +1164,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="166" zoomScalePageLayoutView="138" workbookViewId="0">
@@ -1339,11 +1363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="166" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,13 +1391,13 @@
       <c r="D1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>38</v>
+      <c r="E1" s="15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>49</v>
@@ -1381,13 +1408,13 @@
       <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>5</v>
+      <c r="E2" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>41</v>
@@ -1458,7 +1485,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>23</v>
@@ -1523,7 +1550,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>

--- a/src/list_5x5_with_Numbers.xlsx
+++ b/src/list_5x5_with_Numbers.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronny.elflein/Code/priv/Soundboard/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{47BF41DC-8A51-064C-8E34-4AE3605B8DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8706C7-B57E-8E44-BCEB-B681BB2CD7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_5x5_2 (2)" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>werner-dat-geit</t>
   </si>
@@ -175,13 +175,16 @@
   </si>
   <si>
     <t>werner_flasche</t>
+  </si>
+  <si>
+    <t>stefaaaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,6 +351,14 @@
     </font>
     <font>
       <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -765,7 +776,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -780,14 +791,13 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1147,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="166" zoomScalePageLayoutView="138" workbookViewId="0">
@@ -1339,19 +1349,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="166" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="166" zoomScaleNormal="100" zoomScaleSheetLayoutView="166" zoomScalePageLayoutView="138" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="1.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="1.6640625" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="40.83203125" customWidth="1"/>
+    <col min="1" max="5" width="40.83203125" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="1.6640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>39</v>
@@ -1368,147 +1382,147 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -1523,7 +1537,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="1048575" man="1"/>
   </colBreaks>
